--- a/Escritorio/Data/Detalles Compras.xlsx
+++ b/Escritorio/Data/Detalles Compras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P2001</t>
+          <t>P1002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gaseosa Coca Cola 3L</t>
+          <t>Primax 10kg</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -488,32 +488,6 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>D0001</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P2002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Galleta Soda</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D002</t>
         </is>
       </c>
     </row>
